--- a/InputData/fuels/FSPbPPT/Fuel Surcharge Perc by Power Plant Type.xlsx
+++ b/InputData/fuels/FSPbPPT/Fuel Surcharge Perc by Power Plant Type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\fuels\FSPbPPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\fuels\FSPbPPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC58109D-323F-4F71-9475-149DD14FE39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C55D2B-2E34-43D9-813C-FAF0D2BB0D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="1590" windowWidth="27645" windowHeight="19590" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Source:</t>
   </si>
@@ -125,6 +125,24 @@
   </si>
   <si>
     <t>Therefore, it is necessary to apply a surcharge to plant types that use the same fuel type as other plants</t>
+  </si>
+  <si>
+    <t>hard coal w CCS</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle w CCS</t>
+  </si>
+  <si>
+    <t>biomass w CCS</t>
+  </si>
+  <si>
+    <t>lignite w CCS</t>
+  </si>
+  <si>
+    <t>small modular reactor</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
   </si>
 </sst>
 </file>
@@ -211,7 +229,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -225,6 +243,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -590,9 +609,11 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -744,8 +765,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/InputData/fuels/FSPbPPT/Fuel Surcharge Perc by Power Plant Type.xlsx
+++ b/InputData/fuels/FSPbPPT/Fuel Surcharge Perc by Power Plant Type.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\fuels\FSPbPPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C55D2B-2E34-43D9-813C-FAF0D2BB0D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65263F8A-FDBA-4D8E-81F2-4CDEE15290AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Source:</t>
   </si>
@@ -142,14 +142,17 @@
     <t>small modular reactor</t>
   </si>
   <si>
-    <t>hydrogen</t>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +202,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -229,7 +239,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -244,6 +254,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -609,10 +622,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,10 +819,18 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="7">
         <v>0</v>
       </c>
     </row>
